--- a/Data/myData.xlsx
+++ b/Data/myData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="10755"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dbTesting" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>clinet name</t>
   </si>
@@ -175,8 +175,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,201 +474,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>4100046</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>78787</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>89898</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>8989</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>4343</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>4343</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>4100047</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>78788</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>89899</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>8990</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>4344</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>4344</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -686,12 +689,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4100046</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1">
+        <v>78787</v>
+      </c>
+      <c r="K2" s="1">
+        <v>89898</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8989</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4343</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4343</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/myData.xlsx
+++ b/Data/myData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>clinet name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>//div[contains(@class,'alert')]</t>
+  </si>
+  <si>
+    <t>Gandhali16</t>
   </si>
 </sst>
 </file>
@@ -691,11 +694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -755,7 +761,7 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
